--- a/db/reports/hui-west-maui-thru-2019-1st-quarter.0.xlsx
+++ b/db/reports/hui-west-maui-thru-2019-1st-quarter.0.xlsx
@@ -4000,8 +4000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1063"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1011" workbookViewId="0">
-      <selection activeCell="V1026" sqref="V1026:V1063"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1026" sqref="R1026"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -72735,7 +72735,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -72767,7 +72767,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>43193</v>
+        <v>43618</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
